--- a/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
     <t>disappointing</t>
   </si>
   <si>
@@ -70,97 +70,109 @@
     <t>return</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>interest</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>half</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>fl</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>fl</t>
+    <t>piece</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>picture</t>
+    <t>broken</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>smaller</t>
+    <t>money</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>toy</t>
   </si>
   <si>
     <t>negative</t>
@@ -169,10 +181,10 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>highly</t>
-  </si>
-  <si>
-    <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
@@ -563,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9662162162162162</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>0.6153846153846154</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9527027027027027</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C4">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>0.4675324675324675</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="L4">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9428571428571428</v>
+        <v>0.941747572815534</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.4528301886792453</v>
+        <v>0.4675324675324675</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9223300970873787</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.421875</v>
+        <v>0.4375</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9154929577464789</v>
+        <v>0.9295774647887324</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K7">
         <v>0.4086021505376344</v>
@@ -882,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9086021505376344</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.2510373443983402</v>
+        <v>0.2489626556016598</v>
       </c>
       <c r="L8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8913043478260869</v>
+        <v>0.8978494623655914</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.2410329985652798</v>
+        <v>0.2367288378766141</v>
       </c>
       <c r="L9">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M9">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,16 +1015,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>0.1926605504587156</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8842105263157894</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="C11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,31 +1062,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.1493027071369975</v>
+        <v>0.1622950819672131</v>
       </c>
       <c r="L11">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M11">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1037</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8387096774193549</v>
+        <v>0.8548387096774194</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>0.144578313253012</v>
+        <v>0.1385542168674699</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.09192200557103064</v>
+        <v>0.09749303621169916</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7222222222222222</v>
+        <v>0.765625</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>0.07268007787151201</v>
+        <v>0.07981829980532122</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1429</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,7 +1265,7 @@
         <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K15">
         <v>0.05872042068361086</v>
@@ -1282,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7105263157894737</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1308,13 +1320,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1326,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1334,13 +1346,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1352,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1363,10 +1375,10 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1378,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1386,13 +1398,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6111111111111112</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1404,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1412,13 +1424,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6065573770491803</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1430,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1438,13 +1450,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1456,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1464,13 +1476,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5454545454545454</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1482,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1490,13 +1502,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5370370370370371</v>
+        <v>0.575</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1508,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1516,13 +1528,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5111111111111111</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1534,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1542,13 +1554,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5079365079365079</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1560,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1568,13 +1580,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4928909952606635</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C27">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1586,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>107</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1620,13 +1632,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4347826086956522</v>
+        <v>0.4597156398104265</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1638,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1646,13 +1658,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4166666666666667</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="C30">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1664,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1672,13 +1684,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3564356435643564</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C31">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1690,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1698,13 +1710,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3333333333333333</v>
+        <v>0.3814432989690721</v>
       </c>
       <c r="C32">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1716,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>230</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1724,13 +1736,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3092783505154639</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1742,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>67</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1750,13 +1762,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2974683544303797</v>
+        <v>0.3240740740740741</v>
       </c>
       <c r="C34">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1768,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>222</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1776,13 +1788,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2926829268292683</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1794,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>58</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1802,13 +1814,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2771084337349398</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1820,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1828,13 +1840,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.23</v>
+        <v>0.2816455696202532</v>
       </c>
       <c r="C37">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D37">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1846,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>154</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1854,13 +1866,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2016806722689076</v>
+        <v>0.2527472527472527</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1872,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1880,13 +1892,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1231884057971015</v>
+        <v>0.2436974789915966</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1898,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>242</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1906,13 +1918,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.118942731277533</v>
+        <v>0.17</v>
       </c>
       <c r="C40">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D40">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1924,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>400</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1932,13 +1944,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1139240506329114</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C41">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D41">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1950,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1958,13 +1970,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.09779179810725552</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1976,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>286</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1984,25 +1996,129 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0950965824665676</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="C43">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.09212481426448738</v>
+      </c>
+      <c r="C44">
+        <v>62</v>
+      </c>
+      <c r="D44">
+        <v>63</v>
+      </c>
+      <c r="E44">
         <v>0.02</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <v>0.98</v>
       </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>609</v>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.09148264984227129</v>
+      </c>
+      <c r="C45">
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>29</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.08590308370044053</v>
+      </c>
+      <c r="C46">
+        <v>39</v>
+      </c>
+      <c r="D46">
+        <v>39</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.03358778625954199</v>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
